--- a/data/pca/factorExposure/factorExposure_2016-12-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0130874231353478</v>
+        <v>0.01361118578603216</v>
       </c>
       <c r="C2">
-        <v>-0.04389458892096219</v>
+        <v>0.04169748560068433</v>
       </c>
       <c r="D2">
-        <v>0.05114656326110774</v>
+        <v>-0.06116245608798759</v>
       </c>
       <c r="E2">
-        <v>-0.02851107347943339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.007391657270056083</v>
+      </c>
+      <c r="F2">
+        <v>0.08494235755856137</v>
+      </c>
+      <c r="G2">
+        <v>-0.06498779825212667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05823945558947819</v>
+        <v>0.03667182651483168</v>
       </c>
       <c r="C3">
-        <v>-0.1034926015682621</v>
+        <v>0.08856576964655988</v>
       </c>
       <c r="D3">
-        <v>0.01254710199060922</v>
+        <v>-0.1026846130735098</v>
       </c>
       <c r="E3">
-        <v>-0.03399258826809516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.02624527373434277</v>
+      </c>
+      <c r="F3">
+        <v>0.04787545532567086</v>
+      </c>
+      <c r="G3">
+        <v>-0.09935319814988798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06139464468484414</v>
+        <v>0.05634987889220663</v>
       </c>
       <c r="C4">
-        <v>-0.06438433676418398</v>
+        <v>0.05977802957844479</v>
       </c>
       <c r="D4">
-        <v>0.01937330634945544</v>
+        <v>-0.05654165819957338</v>
       </c>
       <c r="E4">
-        <v>-0.001196244023657782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.003783075213929998</v>
+      </c>
+      <c r="F4">
+        <v>0.0483982388152564</v>
+      </c>
+      <c r="G4">
+        <v>-0.08645518225425201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02563040353607241</v>
+        <v>0.03489821165769798</v>
       </c>
       <c r="C6">
-        <v>-0.05483361264180629</v>
+        <v>0.03912693325873338</v>
       </c>
       <c r="D6">
-        <v>0.005246326508886639</v>
+        <v>-0.0637887776854727</v>
       </c>
       <c r="E6">
-        <v>-0.005531469255571914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01208850064367965</v>
+      </c>
+      <c r="F6">
+        <v>0.03485560607438427</v>
+      </c>
+      <c r="G6">
+        <v>-0.0842080759919823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01883359146861477</v>
+        <v>0.02060257553294936</v>
       </c>
       <c r="C7">
-        <v>-0.04455090010907038</v>
+        <v>0.03574372394073962</v>
       </c>
       <c r="D7">
-        <v>0.01965679667008609</v>
+        <v>-0.0324738736517866</v>
       </c>
       <c r="E7">
-        <v>0.01045706033143534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005412883813601976</v>
+      </c>
+      <c r="F7">
+        <v>0.05991286478068402</v>
+      </c>
+      <c r="G7">
+        <v>-0.1074895731357098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001971292506773981</v>
+        <v>0.005170341400532904</v>
       </c>
       <c r="C8">
-        <v>-0.01006486712473117</v>
+        <v>0.01941328259756165</v>
       </c>
       <c r="D8">
-        <v>0.001521445990782729</v>
+        <v>-0.03655957534665799</v>
       </c>
       <c r="E8">
-        <v>-0.01224613952859819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.005398383747947938</v>
+      </c>
+      <c r="F8">
+        <v>0.02271872753586881</v>
+      </c>
+      <c r="G8">
+        <v>-0.06485273369737404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02672244514442956</v>
+        <v>0.03522806893452263</v>
       </c>
       <c r="C9">
-        <v>-0.04299521682427202</v>
+        <v>0.04536478477768426</v>
       </c>
       <c r="D9">
-        <v>0.01788490530430848</v>
+        <v>-0.04061816703943605</v>
       </c>
       <c r="E9">
-        <v>0.006120330374645134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0008229153481680419</v>
+      </c>
+      <c r="F9">
+        <v>0.0494520747115788</v>
+      </c>
+      <c r="G9">
+        <v>-0.08895696018543972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07513072412162272</v>
+        <v>0.09132007107592516</v>
       </c>
       <c r="C10">
-        <v>0.1984829415985025</v>
+        <v>-0.1956408641490158</v>
       </c>
       <c r="D10">
-        <v>0.006096047607063578</v>
+        <v>-0.01403732959298256</v>
       </c>
       <c r="E10">
-        <v>-0.01616332573909708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02785416074513502</v>
+      </c>
+      <c r="F10">
+        <v>0.02573841974267637</v>
+      </c>
+      <c r="G10">
+        <v>-0.04546914289963767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03852144311715523</v>
+        <v>0.03660721046163714</v>
       </c>
       <c r="C11">
-        <v>-0.05306005325970986</v>
+        <v>0.05070425304280633</v>
       </c>
       <c r="D11">
-        <v>0.004619087938791454</v>
+        <v>-0.02875622488722459</v>
       </c>
       <c r="E11">
-        <v>0.008723770876877044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01572819828187455</v>
+      </c>
+      <c r="F11">
+        <v>0.02332888932181366</v>
+      </c>
+      <c r="G11">
+        <v>-0.07053327353065174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03422810646633635</v>
+        <v>0.03735954848402982</v>
       </c>
       <c r="C12">
-        <v>-0.04380980506112958</v>
+        <v>0.04605724167335773</v>
       </c>
       <c r="D12">
-        <v>0.005620774911100065</v>
+        <v>-0.01944139604571552</v>
       </c>
       <c r="E12">
-        <v>0.01000563434410134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006272231532761486</v>
+      </c>
+      <c r="F12">
+        <v>0.02750807721839228</v>
+      </c>
+      <c r="G12">
+        <v>-0.06922278455815385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.006581417120496293</v>
+        <v>0.01071257114026339</v>
       </c>
       <c r="C13">
-        <v>-0.03749863525166981</v>
+        <v>0.03660144045640325</v>
       </c>
       <c r="D13">
-        <v>0.02809839708771785</v>
+        <v>-0.06878812622305337</v>
       </c>
       <c r="E13">
-        <v>-0.02020303219920056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01532829625182412</v>
+      </c>
+      <c r="F13">
+        <v>0.07284024481636217</v>
+      </c>
+      <c r="G13">
+        <v>-0.1133052574562071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005997424324290945</v>
+        <v>0.008692374262393098</v>
       </c>
       <c r="C14">
-        <v>-0.02848039071114585</v>
+        <v>0.02760388596015669</v>
       </c>
       <c r="D14">
-        <v>0.0159335930400681</v>
+        <v>-0.02574024545263344</v>
       </c>
       <c r="E14">
-        <v>0.01271174935461462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002922248604025825</v>
+      </c>
+      <c r="F14">
+        <v>0.05607696627042059</v>
+      </c>
+      <c r="G14">
+        <v>-0.0995237170667501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03335377717720935</v>
+        <v>0.03535873061571009</v>
       </c>
       <c r="C16">
-        <v>-0.03971494816619287</v>
+        <v>0.04390045173844828</v>
       </c>
       <c r="D16">
-        <v>0.002827983095176336</v>
+        <v>-0.02472411864709892</v>
       </c>
       <c r="E16">
-        <v>0.004015035145789697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001443036833049729</v>
+      </c>
+      <c r="F16">
+        <v>0.02903550038844483</v>
+      </c>
+      <c r="G16">
+        <v>-0.07503388617887158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03038782555158537</v>
+        <v>0.01767640819933054</v>
       </c>
       <c r="C19">
-        <v>-0.05641426236832735</v>
+        <v>0.04697556062802687</v>
       </c>
       <c r="D19">
-        <v>0.01923207180555532</v>
+        <v>-0.1046296082230483</v>
       </c>
       <c r="E19">
-        <v>-0.03549550667853774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0170173688009675</v>
+      </c>
+      <c r="F19">
+        <v>0.06587557455620918</v>
+      </c>
+      <c r="G19">
+        <v>-0.1129909507360537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01241673732027003</v>
+        <v>0.01619412961472001</v>
       </c>
       <c r="C20">
-        <v>-0.04386340541724384</v>
+        <v>0.03669288114050132</v>
       </c>
       <c r="D20">
-        <v>0.01578269467267036</v>
+        <v>-0.04945634876302892</v>
       </c>
       <c r="E20">
-        <v>-0.02270844759810391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02687473061032893</v>
+      </c>
+      <c r="F20">
+        <v>0.05647336159630239</v>
+      </c>
+      <c r="G20">
+        <v>-0.09123375924708209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005393534909068734</v>
+        <v>0.006407897785082803</v>
       </c>
       <c r="C21">
-        <v>-0.03599902687769354</v>
+        <v>0.03624103828627184</v>
       </c>
       <c r="D21">
-        <v>0.02842770102113073</v>
+        <v>-0.07141483029699472</v>
       </c>
       <c r="E21">
-        <v>-0.03085157220211823</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.01532335018764499</v>
+      </c>
+      <c r="F21">
+        <v>0.08175969576990372</v>
+      </c>
+      <c r="G21">
+        <v>-0.1266595681669757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002816021224172528</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01329853098786627</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.02495862848131842</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001673951674771191</v>
+      </c>
+      <c r="F22">
+        <v>0.002072955811101187</v>
+      </c>
+      <c r="G22">
+        <v>-0.01606166057023055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002836513481349253</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0132471872752575</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.02474992687734985</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001351901234709144</v>
+      </c>
+      <c r="F23">
+        <v>0.002072846046912188</v>
+      </c>
+      <c r="G23">
+        <v>-0.01586696704954202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02682000206570039</v>
+        <v>0.03128997634760049</v>
       </c>
       <c r="C24">
-        <v>-0.04711065495036425</v>
+        <v>0.04944229968139593</v>
       </c>
       <c r="D24">
-        <v>0.01285353622115908</v>
+        <v>-0.02427397833509521</v>
       </c>
       <c r="E24">
-        <v>0.01156662287862709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.008830094445410315</v>
+      </c>
+      <c r="F24">
+        <v>0.03591481724947479</v>
+      </c>
+      <c r="G24">
+        <v>-0.07196962940208954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04464098944904406</v>
+        <v>0.04340852990061639</v>
       </c>
       <c r="C25">
-        <v>-0.05391622596838542</v>
+        <v>0.0558980812827722</v>
       </c>
       <c r="D25">
-        <v>0.01412465183408663</v>
+        <v>-0.01790428854579658</v>
       </c>
       <c r="E25">
-        <v>0.02134504590257006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008733182156020236</v>
+      </c>
+      <c r="F25">
+        <v>0.03870013741482566</v>
+      </c>
+      <c r="G25">
+        <v>-0.0824261022688953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.008081209947283632</v>
+        <v>0.01463497366413506</v>
       </c>
       <c r="C26">
-        <v>-0.01017799299756797</v>
+        <v>0.01065376250737619</v>
       </c>
       <c r="D26">
-        <v>0.03457450919776931</v>
+        <v>-0.02228239232961363</v>
       </c>
       <c r="E26">
-        <v>-0.004322489156790675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.001144566163612481</v>
+      </c>
+      <c r="F26">
+        <v>0.06282082057156016</v>
+      </c>
+      <c r="G26">
+        <v>-0.06234936239480639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0917867418455858</v>
+        <v>0.1221426769125378</v>
       </c>
       <c r="C28">
-        <v>0.2284625257908618</v>
+        <v>-0.2468929396284948</v>
       </c>
       <c r="D28">
-        <v>0.0183320598311327</v>
+        <v>0.001430910061421743</v>
       </c>
       <c r="E28">
-        <v>-0.01112374891869581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.02784426549396348</v>
+      </c>
+      <c r="F28">
+        <v>0.03827017458268862</v>
+      </c>
+      <c r="G28">
+        <v>-0.04413453116580814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01120701296591057</v>
+        <v>0.007972462673120333</v>
       </c>
       <c r="C29">
-        <v>-0.02041342928568237</v>
+        <v>0.0230148905103909</v>
       </c>
       <c r="D29">
-        <v>0.009179711320197867</v>
+        <v>-0.0164010890777446</v>
       </c>
       <c r="E29">
-        <v>0.01198018200119751</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007069396901083631</v>
+      </c>
+      <c r="F29">
+        <v>0.04682000906630868</v>
+      </c>
+      <c r="G29">
+        <v>-0.09401405142136963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03706621279198691</v>
+        <v>0.03931586350938945</v>
       </c>
       <c r="C30">
-        <v>-0.07428792441113222</v>
+        <v>0.06407563508628868</v>
       </c>
       <c r="D30">
-        <v>0.03705353374438512</v>
+        <v>-0.09081927858555443</v>
       </c>
       <c r="E30">
-        <v>0.0004209528582157744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02189549080046787</v>
+      </c>
+      <c r="F30">
+        <v>0.06545700703729751</v>
+      </c>
+      <c r="G30">
+        <v>-0.09591304072412189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04403680158644817</v>
+        <v>0.05666186545522435</v>
       </c>
       <c r="C31">
-        <v>-0.02627019234481979</v>
+        <v>0.04120944834352512</v>
       </c>
       <c r="D31">
-        <v>0.02373004977477896</v>
+        <v>-0.003459590847146146</v>
       </c>
       <c r="E31">
-        <v>0.01521211903966863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02804896593888119</v>
+      </c>
+      <c r="F31">
+        <v>0.05943868878308683</v>
+      </c>
+      <c r="G31">
+        <v>-0.07992380666644197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007662534561429167</v>
+        <v>0.00251905714398297</v>
       </c>
       <c r="C32">
-        <v>-0.03581334536527769</v>
+        <v>0.02352011301182407</v>
       </c>
       <c r="D32">
-        <v>0.002450616484963513</v>
+        <v>-0.04692362388246177</v>
       </c>
       <c r="E32">
-        <v>-0.018465548280771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01253879114500199</v>
+      </c>
+      <c r="F32">
+        <v>0.02488232940211336</v>
+      </c>
+      <c r="G32">
+        <v>-0.07161594540478347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02736882800641912</v>
+        <v>0.02661796654504488</v>
       </c>
       <c r="C33">
-        <v>-0.05642092398539671</v>
+        <v>0.04632161460804596</v>
       </c>
       <c r="D33">
-        <v>0.02676537048656568</v>
+        <v>-0.07452489373245005</v>
       </c>
       <c r="E33">
-        <v>-0.007225956227951922</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.002036113872166416</v>
+      </c>
+      <c r="F33">
+        <v>0.07265396353140931</v>
+      </c>
+      <c r="G33">
+        <v>-0.1379137655960016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05254877002308719</v>
+        <v>0.04297608731969486</v>
       </c>
       <c r="C34">
-        <v>-0.05091014892519782</v>
+        <v>0.06039116190698991</v>
       </c>
       <c r="D34">
-        <v>-0.0004194359591150248</v>
+        <v>-0.02231242257455305</v>
       </c>
       <c r="E34">
-        <v>0.01719767867650633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02149456666313438</v>
+      </c>
+      <c r="F34">
+        <v>0.01841477020122566</v>
+      </c>
+      <c r="G34">
+        <v>-0.07743908106244785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008142181298575215</v>
+        <v>0.01512260877671426</v>
       </c>
       <c r="C36">
-        <v>-0.005083889781764781</v>
+        <v>0.006376430448287724</v>
       </c>
       <c r="D36">
-        <v>0.0157771138746473</v>
+        <v>-0.02380799164068109</v>
       </c>
       <c r="E36">
-        <v>0.004304579923335086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.007244394168295796</v>
+      </c>
+      <c r="F36">
+        <v>0.0500725874832051</v>
+      </c>
+      <c r="G36">
+        <v>-0.08437337165473431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03556117655293575</v>
+        <v>0.03179616334708556</v>
       </c>
       <c r="C38">
-        <v>-0.02003235845608195</v>
+        <v>0.02237751749691675</v>
       </c>
       <c r="D38">
-        <v>0.008703911128306003</v>
+        <v>-0.0213369640200479</v>
       </c>
       <c r="E38">
-        <v>0.01397012471182148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01218360256767563</v>
+      </c>
+      <c r="F38">
+        <v>0.038184984620615</v>
+      </c>
+      <c r="G38">
+        <v>-0.08427519241654957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03598779723442892</v>
+        <v>0.03749608281413203</v>
       </c>
       <c r="C39">
-        <v>-0.0843633573723159</v>
+        <v>0.07488168402853759</v>
       </c>
       <c r="D39">
-        <v>0.009038718699564085</v>
+        <v>-0.04673219894274477</v>
       </c>
       <c r="E39">
-        <v>-0.002525557725083045</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01775270352611528</v>
+      </c>
+      <c r="F39">
+        <v>0.03623381016929506</v>
+      </c>
+      <c r="G39">
+        <v>-0.07954219671662609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01520693396555342</v>
+        <v>0.01667981109349501</v>
       </c>
       <c r="C40">
-        <v>-0.02708121940643695</v>
+        <v>0.03571729902637032</v>
       </c>
       <c r="D40">
-        <v>0.0157112200281215</v>
+        <v>-0.03739271899065129</v>
       </c>
       <c r="E40">
-        <v>-0.01681094867494029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02586059797554296</v>
+      </c>
+      <c r="F40">
+        <v>0.06015326831076803</v>
+      </c>
+      <c r="G40">
+        <v>-0.1068551242919472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.009661550596956702</v>
+        <v>0.01831205005273045</v>
       </c>
       <c r="C41">
-        <v>0.0003802961139378388</v>
+        <v>-0.001704003076205948</v>
       </c>
       <c r="D41">
-        <v>0.01309242377605789</v>
+        <v>-0.0190786800990157</v>
       </c>
       <c r="E41">
-        <v>0.009780672927901421</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01191907149981092</v>
+      </c>
+      <c r="F41">
+        <v>0.0450016732357631</v>
+      </c>
+      <c r="G41">
+        <v>-0.07681378861293781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.005079489014363405</v>
+        <v>0.003644526343331217</v>
       </c>
       <c r="C42">
-        <v>-0.04856360940916143</v>
+        <v>0.02655052593336575</v>
       </c>
       <c r="D42">
-        <v>0.1315658678710154</v>
+        <v>-0.005055976605463327</v>
       </c>
       <c r="E42">
-        <v>-0.04031582213709364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01251566500416557</v>
+      </c>
+      <c r="F42">
+        <v>0.1213944694464952</v>
+      </c>
+      <c r="G42">
+        <v>0.09851746813834072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02880643523504656</v>
+        <v>0.03323152858510092</v>
       </c>
       <c r="C43">
-        <v>-0.009435707886230356</v>
+        <v>0.01101801000897429</v>
       </c>
       <c r="D43">
-        <v>0.01064286969038154</v>
+        <v>-0.03732295260534974</v>
       </c>
       <c r="E43">
-        <v>0.01060063655629612</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009597743002769643</v>
+      </c>
+      <c r="F43">
+        <v>0.04969317102755185</v>
+      </c>
+      <c r="G43">
+        <v>-0.1060127748080212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02064014955651776</v>
+        <v>0.01507282548753096</v>
       </c>
       <c r="C44">
-        <v>-0.05476097174541058</v>
+        <v>0.05137464226759758</v>
       </c>
       <c r="D44">
-        <v>0.01298309201933309</v>
+        <v>-0.0434850700215847</v>
       </c>
       <c r="E44">
-        <v>-0.006729846991828025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01801444520353559</v>
+      </c>
+      <c r="F44">
+        <v>0.05299752202235045</v>
+      </c>
+      <c r="G44">
+        <v>-0.1045859601137089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0008110107132436198</v>
+        <v>0.01000171666530045</v>
       </c>
       <c r="C46">
-        <v>-0.01192391018039051</v>
+        <v>0.01778087237054111</v>
       </c>
       <c r="D46">
-        <v>0.01944555491320946</v>
+        <v>-0.009804232607228368</v>
       </c>
       <c r="E46">
-        <v>0.02153264131703743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01146383938308095</v>
+      </c>
+      <c r="F46">
+        <v>0.06051485807406719</v>
+      </c>
+      <c r="G46">
+        <v>-0.09677121147226089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0748368354807596</v>
+        <v>0.08621975356712365</v>
       </c>
       <c r="C47">
-        <v>-0.06422498495322917</v>
+        <v>0.07139631825200039</v>
       </c>
       <c r="D47">
-        <v>0.004883448213073481</v>
+        <v>0.006794114856896963</v>
       </c>
       <c r="E47">
-        <v>0.01376108471378473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.03840690355958738</v>
+      </c>
+      <c r="F47">
+        <v>0.04077079763624082</v>
+      </c>
+      <c r="G47">
+        <v>-0.08377105859619116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01651325951048787</v>
+        <v>0.01728916065691833</v>
       </c>
       <c r="C48">
-        <v>-0.00805088010491636</v>
+        <v>0.01245942976349952</v>
       </c>
       <c r="D48">
-        <v>0.000842272527486033</v>
+        <v>-0.01634622263470165</v>
       </c>
       <c r="E48">
-        <v>0.01232176797949265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01881008799871696</v>
+      </c>
+      <c r="F48">
+        <v>0.041673667324981</v>
+      </c>
+      <c r="G48">
+        <v>-0.1009487666627649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07939868058894131</v>
+        <v>0.07896788497078325</v>
       </c>
       <c r="C50">
-        <v>-0.05922274182431483</v>
+        <v>0.06700748119664922</v>
       </c>
       <c r="D50">
-        <v>0.007698990646437171</v>
+        <v>0.0001197225410025573</v>
       </c>
       <c r="E50">
-        <v>0.02348951839801027</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03748844118977333</v>
+      </c>
+      <c r="F50">
+        <v>0.04709263437781269</v>
+      </c>
+      <c r="G50">
+        <v>-0.09353112078866394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0200627176105569</v>
+        <v>0.01226630332486469</v>
       </c>
       <c r="C51">
-        <v>-0.0386048882571619</v>
+        <v>0.03176589055939781</v>
       </c>
       <c r="D51">
-        <v>0.01825054175728018</v>
+        <v>-0.04388873934411197</v>
       </c>
       <c r="E51">
-        <v>0.002128904505750638</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01160026236566049</v>
+      </c>
+      <c r="F51">
+        <v>0.05057302595481052</v>
+      </c>
+      <c r="G51">
+        <v>-0.08928771774634592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1017481271685369</v>
+        <v>0.08779077834332785</v>
       </c>
       <c r="C53">
-        <v>-0.07006078683444664</v>
+        <v>0.08490017078294086</v>
       </c>
       <c r="D53">
-        <v>-0.001031248312424254</v>
+        <v>0.02873431072615936</v>
       </c>
       <c r="E53">
-        <v>0.03716430989304672</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0425443903814417</v>
+      </c>
+      <c r="F53">
+        <v>0.03211033745396831</v>
+      </c>
+      <c r="G53">
+        <v>-0.09354238779692392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02773803632273955</v>
+        <v>0.03190275815401732</v>
       </c>
       <c r="C54">
-        <v>-0.0009168154182208523</v>
+        <v>0.01734206155637194</v>
       </c>
       <c r="D54">
-        <v>0.00180235485458864</v>
+        <v>-0.02953947161831021</v>
       </c>
       <c r="E54">
-        <v>-0.001459618499678594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00996555428236787</v>
+      </c>
+      <c r="F54">
+        <v>0.04377191013817592</v>
+      </c>
+      <c r="G54">
+        <v>-0.1044454343432389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07757401110804367</v>
+        <v>0.08188345298026081</v>
       </c>
       <c r="C55">
-        <v>-0.06184799641372405</v>
+        <v>0.06871078197363231</v>
       </c>
       <c r="D55">
-        <v>0.004898080538691975</v>
+        <v>0.03268773447202356</v>
       </c>
       <c r="E55">
-        <v>0.03182807737656911</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.04404049542568912</v>
+      </c>
+      <c r="F55">
+        <v>0.03128969811176007</v>
+      </c>
+      <c r="G55">
+        <v>-0.06513512178805597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1569027931325285</v>
+        <v>0.1440816015140151</v>
       </c>
       <c r="C56">
-        <v>-0.08817271712204772</v>
+        <v>0.1038906218645672</v>
       </c>
       <c r="D56">
-        <v>-0.0225901510288601</v>
+        <v>0.04138854591382365</v>
       </c>
       <c r="E56">
-        <v>0.03386940778922839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.05412651149660622</v>
+      </c>
+      <c r="F56">
+        <v>0.002540140408802178</v>
+      </c>
+      <c r="G56">
+        <v>-0.06696016793891925</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005693822256167144</v>
+        <v>0.002436085095977847</v>
       </c>
       <c r="C57">
-        <v>-0.007624798323812955</v>
+        <v>0.00394047438714272</v>
       </c>
       <c r="D57">
-        <v>0.006225538975015415</v>
+        <v>-0.02685137901911692</v>
       </c>
       <c r="E57">
-        <v>-0.03338590585282467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0003126962781229889</v>
+      </c>
+      <c r="F57">
+        <v>0.007584905568036567</v>
+      </c>
+      <c r="G57">
+        <v>-0.006942837165787002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0477933227434904</v>
+        <v>0.03682212691960039</v>
       </c>
       <c r="C58">
-        <v>-0.05953863978550822</v>
+        <v>0.03049501043001657</v>
       </c>
       <c r="D58">
-        <v>-0.1732973746752992</v>
+        <v>-0.6995064144710655</v>
       </c>
       <c r="E58">
-        <v>-0.948318408326793</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.6148275781792807</v>
+      </c>
+      <c r="F58">
+        <v>-0.1212493330355528</v>
+      </c>
+      <c r="G58">
+        <v>0.2668238588341306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1394892998935501</v>
+        <v>0.1462532279745012</v>
       </c>
       <c r="C59">
-        <v>0.2251445533693878</v>
+        <v>-0.205423689853465</v>
       </c>
       <c r="D59">
-        <v>2.041344353427978e-05</v>
+        <v>-0.02194795553323036</v>
       </c>
       <c r="E59">
-        <v>-0.01182564313697591</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01151613643792473</v>
+      </c>
+      <c r="F59">
+        <v>0.0120507152835376</v>
+      </c>
+      <c r="G59">
+        <v>-0.03735768184072628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.313564431200807</v>
+        <v>0.2878789323131245</v>
       </c>
       <c r="C60">
-        <v>-0.07408617215329323</v>
+        <v>0.08825514260173586</v>
       </c>
       <c r="D60">
-        <v>0.02227458509253709</v>
+        <v>-0.1393704986503288</v>
       </c>
       <c r="E60">
-        <v>-0.04596898340648529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2907825572301607</v>
+      </c>
+      <c r="F60">
+        <v>-0.09576928524834528</v>
+      </c>
+      <c r="G60">
+        <v>0.135783439041467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03192700367806917</v>
+        <v>0.03948425830767646</v>
       </c>
       <c r="C61">
-        <v>-0.06358712238698315</v>
+        <v>0.06239452672711005</v>
       </c>
       <c r="D61">
-        <v>-0.0006513319592979101</v>
+        <v>-0.04051407679741256</v>
       </c>
       <c r="E61">
-        <v>2.045051301078763e-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.008163899767806694</v>
+      </c>
+      <c r="F61">
+        <v>0.02806252007705381</v>
+      </c>
+      <c r="G61">
+        <v>-0.08500428757619546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01405698685361199</v>
+        <v>0.01544455383628259</v>
       </c>
       <c r="C63">
-        <v>-0.02705723456544</v>
+        <v>0.02700923452613057</v>
       </c>
       <c r="D63">
-        <v>0.01687377999072001</v>
+        <v>-0.01639092146523911</v>
       </c>
       <c r="E63">
-        <v>0.01947216980505578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.008944264317976904</v>
+      </c>
+      <c r="F63">
+        <v>0.04544543215007882</v>
+      </c>
+      <c r="G63">
+        <v>-0.0818933209083727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04625859076417072</v>
+        <v>0.052699510359161</v>
       </c>
       <c r="C64">
-        <v>-0.02951138325295022</v>
+        <v>0.04666907804775824</v>
       </c>
       <c r="D64">
-        <v>0.0175362208108821</v>
+        <v>-0.009919981970743934</v>
       </c>
       <c r="E64">
-        <v>0.01948757117629647</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006079544843291076</v>
+      </c>
+      <c r="F64">
+        <v>0.04448982048052141</v>
+      </c>
+      <c r="G64">
+        <v>-0.08198979532480592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0846806262332828</v>
+        <v>0.07185310250017538</v>
       </c>
       <c r="C65">
-        <v>-0.06317299752081247</v>
+        <v>0.04443152712718389</v>
       </c>
       <c r="D65">
-        <v>0.01127880146411977</v>
+        <v>-0.06740991200059354</v>
       </c>
       <c r="E65">
-        <v>-0.005468444126896792</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004964726801737099</v>
+      </c>
+      <c r="F65">
+        <v>0.01965408417478689</v>
+      </c>
+      <c r="G65">
+        <v>-0.0380026250468677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0605950396591166</v>
+        <v>0.05010764428077665</v>
       </c>
       <c r="C66">
-        <v>-0.1208048798429629</v>
+        <v>0.0988245395478152</v>
       </c>
       <c r="D66">
-        <v>0.01002838451483221</v>
+        <v>-0.07047637907605593</v>
       </c>
       <c r="E66">
-        <v>-0.01061678781820289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02174189245821067</v>
+      </c>
+      <c r="F66">
+        <v>0.0339949053425274</v>
+      </c>
+      <c r="G66">
+        <v>-0.08579958144840168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06239578659185192</v>
+        <v>0.05424769275497941</v>
       </c>
       <c r="C67">
-        <v>-0.02217571805299821</v>
+        <v>0.02796010701299596</v>
       </c>
       <c r="D67">
-        <v>0.007467320003762036</v>
+        <v>-0.00712664953290388</v>
       </c>
       <c r="E67">
-        <v>0.01831809195696197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00727246837335872</v>
+      </c>
+      <c r="F67">
+        <v>0.0297026635565771</v>
+      </c>
+      <c r="G67">
+        <v>-0.07299146574768263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1062988271438679</v>
+        <v>0.1481356302456284</v>
       </c>
       <c r="C68">
-        <v>0.2872838723094419</v>
+        <v>-0.2694328203742954</v>
       </c>
       <c r="D68">
-        <v>0.02060225137128923</v>
+        <v>0.006493839552299418</v>
       </c>
       <c r="E68">
-        <v>-0.01767408807642613</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03992633975715369</v>
+      </c>
+      <c r="F68">
+        <v>0.03780891760995512</v>
+      </c>
+      <c r="G68">
+        <v>-0.01280157819782911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08331520832808482</v>
+        <v>0.08540556995603343</v>
       </c>
       <c r="C69">
-        <v>-0.05904728166792812</v>
+        <v>0.07432761927834992</v>
       </c>
       <c r="D69">
-        <v>0.007542006662932513</v>
+        <v>0.01117201932786949</v>
       </c>
       <c r="E69">
-        <v>0.03672240645591157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01301616332967801</v>
+      </c>
+      <c r="F69">
+        <v>0.04141241881890595</v>
+      </c>
+      <c r="G69">
+        <v>-0.09193742520198854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,231 +2304,315 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1150346690506073</v>
+        <v>0.1363363347853272</v>
       </c>
       <c r="C71">
-        <v>0.2382902051899915</v>
+        <v>-0.2381475785909568</v>
       </c>
       <c r="D71">
-        <v>0.01439407068260814</v>
+        <v>-0.02239607303473433</v>
       </c>
       <c r="E71">
-        <v>-0.01939560572207684</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03725472736355015</v>
+      </c>
+      <c r="F71">
+        <v>0.03840365695582808</v>
+      </c>
+      <c r="G71">
+        <v>-0.05904355896970429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07482181206239644</v>
+        <v>0.08744622865236332</v>
       </c>
       <c r="C72">
-        <v>-0.05909950528179166</v>
+        <v>0.05780991441452515</v>
       </c>
       <c r="D72">
-        <v>0.01581190096076572</v>
+        <v>-0.007625081729650073</v>
       </c>
       <c r="E72">
-        <v>0.05630517225658772</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.02744594716212237</v>
+      </c>
+      <c r="F72">
+        <v>0.03164159282959295</v>
+      </c>
+      <c r="G72">
+        <v>-0.07458358519083523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4463119531518559</v>
+        <v>0.3747517749292447</v>
       </c>
       <c r="C73">
-        <v>-0.08139710842889115</v>
+        <v>0.07727146937447764</v>
       </c>
       <c r="D73">
-        <v>0.05536253650873137</v>
+        <v>-0.2941969116490643</v>
       </c>
       <c r="E73">
-        <v>-0.07449241428632976</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.5086939882513314</v>
+      </c>
+      <c r="F73">
+        <v>-0.1850299813763742</v>
+      </c>
+      <c r="G73">
+        <v>0.287160617501432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1208696374329957</v>
+        <v>0.1099486813370009</v>
       </c>
       <c r="C74">
-        <v>-0.1129325101638684</v>
+        <v>0.1021965109450026</v>
       </c>
       <c r="D74">
-        <v>-0.004980084971774115</v>
+        <v>0.01351705977028447</v>
       </c>
       <c r="E74">
-        <v>0.02845983038466743</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.05707098380539444</v>
+      </c>
+      <c r="F74">
+        <v>0.02510475069290874</v>
+      </c>
+      <c r="G74">
+        <v>-0.07564178311367512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2722533249577488</v>
+        <v>0.255588952801227</v>
       </c>
       <c r="C75">
-        <v>-0.1215409664229504</v>
+        <v>0.1423864133656021</v>
       </c>
       <c r="D75">
-        <v>-0.04782364589963008</v>
+        <v>0.1079340355761132</v>
       </c>
       <c r="E75">
-        <v>0.04946457336120825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1254545548919844</v>
+      </c>
+      <c r="F75">
+        <v>-0.02317045314421287</v>
+      </c>
+      <c r="G75">
+        <v>-0.05103645058763281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1235974970247236</v>
+        <v>0.1242801871997454</v>
       </c>
       <c r="C76">
-        <v>-0.1011961130304509</v>
+        <v>0.1034210658889558</v>
       </c>
       <c r="D76">
-        <v>-0.02080127276317912</v>
+        <v>0.04526227294847454</v>
       </c>
       <c r="E76">
-        <v>0.0429330274135381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07834994405653804</v>
+      </c>
+      <c r="F76">
+        <v>0.01011974219526647</v>
+      </c>
+      <c r="G76">
+        <v>-0.07874652576190515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07057828650347978</v>
+        <v>0.06714733892010889</v>
       </c>
       <c r="C77">
-        <v>-0.05663765943126942</v>
+        <v>0.06138898169601668</v>
       </c>
       <c r="D77">
-        <v>0.01029933833236645</v>
+        <v>-0.05717357659103012</v>
       </c>
       <c r="E77">
-        <v>-0.02052208014168938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03206142674954316</v>
+      </c>
+      <c r="F77">
+        <v>0.04259521839882423</v>
+      </c>
+      <c r="G77">
+        <v>-0.08910120675715168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04653810442721314</v>
+        <v>0.04171414946648457</v>
       </c>
       <c r="C78">
-        <v>-0.05044177968357485</v>
+        <v>0.05423112423708284</v>
       </c>
       <c r="D78">
-        <v>-0.002452162407126286</v>
+        <v>-0.05815744175695445</v>
       </c>
       <c r="E78">
-        <v>-0.006197371085939415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02352971582151306</v>
+      </c>
+      <c r="F78">
+        <v>0.0217741960204445</v>
+      </c>
+      <c r="G78">
+        <v>-0.09546070453773423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0004201349002126545</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0002409238213982245</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-0.007688210638452647</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.00239481033066205</v>
+      </c>
+      <c r="F79">
+        <v>0.003080534878517818</v>
+      </c>
+      <c r="G79">
+        <v>-0.008504042819856648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05535447643015605</v>
+        <v>0.04077467061824677</v>
       </c>
       <c r="C80">
-        <v>-0.06020402886273041</v>
+        <v>0.04693762234756666</v>
       </c>
       <c r="D80">
-        <v>0.02073461159043419</v>
+        <v>-0.0428041147121413</v>
       </c>
       <c r="E80">
-        <v>-0.02401541387982624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.00246115673529491</v>
+      </c>
+      <c r="F80">
+        <v>0.03550782589361976</v>
+      </c>
+      <c r="G80">
+        <v>-0.02262835835142532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1411962412095155</v>
+        <v>0.1407203546532832</v>
       </c>
       <c r="C81">
-        <v>-0.07472172800946884</v>
+        <v>0.09206886976888011</v>
       </c>
       <c r="D81">
-        <v>-0.01906520835621119</v>
+        <v>0.0731223680546767</v>
       </c>
       <c r="E81">
-        <v>0.03770284782410892</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1027883876330975</v>
+      </c>
+      <c r="F81">
+        <v>0.01121978934364832</v>
+      </c>
+      <c r="G81">
+        <v>-0.04755967943678441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05637540089233507</v>
+        <v>0.1747161429110571</v>
       </c>
       <c r="C82">
-        <v>-0.03858426911667469</v>
+        <v>0.1247333853317986</v>
       </c>
       <c r="D82">
-        <v>0.002261458601880335</v>
+        <v>0.1881651726136051</v>
       </c>
       <c r="E82">
-        <v>0.02350577655278906</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05011090327433377</v>
+      </c>
+      <c r="F82">
+        <v>0.04029688582682612</v>
+      </c>
+      <c r="G82">
+        <v>-0.01748600820238426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02904711624136877</v>
+        <v>0.02794681997014607</v>
       </c>
       <c r="C83">
-        <v>-0.01922731810713356</v>
+        <v>0.03228099524567164</v>
       </c>
       <c r="D83">
-        <v>0.009433512784862791</v>
+        <v>-0.03429887315988866</v>
       </c>
       <c r="E83">
-        <v>-0.0173917477059666</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.01033887236285831</v>
+      </c>
+      <c r="F83">
+        <v>0.02526552613347635</v>
+      </c>
+      <c r="G83">
+        <v>-0.04681334174669279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2497651450252744</v>
+        <v>0.2137826667343628</v>
       </c>
       <c r="C85">
-        <v>-0.1209305269209596</v>
+        <v>0.1245978368075649</v>
       </c>
       <c r="D85">
-        <v>-0.03656542784602371</v>
+        <v>0.1102570291227648</v>
       </c>
       <c r="E85">
-        <v>0.1095213685995093</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.05511133401444947</v>
+      </c>
+      <c r="F85">
+        <v>-0.03940679094804288</v>
+      </c>
+      <c r="G85">
+        <v>-0.01925368121310603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01041530692246479</v>
+        <v>0.0120305102459652</v>
       </c>
       <c r="C86">
-        <v>-0.02085840961801583</v>
+        <v>0.02446961902725444</v>
       </c>
       <c r="D86">
-        <v>0.05538640098612039</v>
+        <v>-0.08157704238417048</v>
       </c>
       <c r="E86">
-        <v>-0.01046600479065321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01887969412166929</v>
+      </c>
+      <c r="F86">
+        <v>0.0999192810893134</v>
+      </c>
+      <c r="G86">
+        <v>-0.1307027528142255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01370745293897961</v>
+        <v>0.0204790703183147</v>
       </c>
       <c r="C87">
-        <v>-0.02238931970017734</v>
+        <v>0.01525280046828899</v>
       </c>
       <c r="D87">
-        <v>0.007601310962383504</v>
+        <v>-0.09992852319345737</v>
       </c>
       <c r="E87">
-        <v>-0.07982422048336137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.03457693700114799</v>
+      </c>
+      <c r="F87">
+        <v>0.04691917220944823</v>
+      </c>
+      <c r="G87">
+        <v>-0.0949845337028236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09643625993525745</v>
+        <v>0.08987868005995857</v>
       </c>
       <c r="C88">
-        <v>-0.06239829506994106</v>
+        <v>0.06049724496352939</v>
       </c>
       <c r="D88">
-        <v>0.04953594338876394</v>
+        <v>-0.01400721553004718</v>
       </c>
       <c r="E88">
-        <v>0.01158495580678069</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008455517592625228</v>
+      </c>
+      <c r="F88">
+        <v>0.08564297842777614</v>
+      </c>
+      <c r="G88">
+        <v>-0.06567600163518385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1882929857137665</v>
+        <v>0.2092542418340997</v>
       </c>
       <c r="C89">
-        <v>0.3810081464229924</v>
+        <v>-0.3721795989464255</v>
       </c>
       <c r="D89">
-        <v>0.02273773877173799</v>
+        <v>0.02304977955373738</v>
       </c>
       <c r="E89">
-        <v>0.02258391428298135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.006159946248913621</v>
+      </c>
+      <c r="F89">
+        <v>0.04880932500217008</v>
+      </c>
+      <c r="G89">
+        <v>-0.06216225176818468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1711117899480434</v>
+        <v>0.1978648902666156</v>
       </c>
       <c r="C90">
-        <v>0.353117754265618</v>
+        <v>-0.325000678441338</v>
       </c>
       <c r="D90">
-        <v>0.01937225672325919</v>
+        <v>0.01516589088388385</v>
       </c>
       <c r="E90">
-        <v>-0.01792853756578231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.05394517093042663</v>
+      </c>
+      <c r="F90">
+        <v>0.04443399004985309</v>
+      </c>
+      <c r="G90">
+        <v>-0.04043208355944725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2098340184005374</v>
+        <v>0.1913932435734761</v>
       </c>
       <c r="C91">
-        <v>-0.109315925912768</v>
+        <v>0.1302757194700573</v>
       </c>
       <c r="D91">
-        <v>-0.01930450570638</v>
+        <v>0.08790534446935078</v>
       </c>
       <c r="E91">
-        <v>0.05928730152231856</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1002250494329716</v>
+      </c>
+      <c r="F91">
+        <v>0.008217934904797233</v>
+      </c>
+      <c r="G91">
+        <v>-0.05831347200173795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1763133392449578</v>
+        <v>0.1792152350366617</v>
       </c>
       <c r="C92">
-        <v>0.2801760877894761</v>
+        <v>-0.2768771531083126</v>
       </c>
       <c r="D92">
-        <v>-0.03101870408304184</v>
+        <v>-0.003347326350587122</v>
       </c>
       <c r="E92">
-        <v>-0.002375006081925359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07630559765348618</v>
+      </c>
+      <c r="F92">
+        <v>0.002127559737684282</v>
+      </c>
+      <c r="G92">
+        <v>-0.09008567373556155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1819062505295989</v>
+        <v>0.2197337957289815</v>
       </c>
       <c r="C93">
-        <v>0.3305865844783208</v>
+        <v>-0.321247141719635</v>
       </c>
       <c r="D93">
-        <v>0.01170114960467893</v>
+        <v>-0.000863287653021759</v>
       </c>
       <c r="E93">
-        <v>-0.01774738539092982</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03716921707706249</v>
+      </c>
+      <c r="F93">
+        <v>0.03234950294485297</v>
+      </c>
+      <c r="G93">
+        <v>-0.05175501015964327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2806824217167827</v>
+        <v>0.3398699485711292</v>
       </c>
       <c r="C94">
-        <v>-0.1293458013895594</v>
+        <v>0.1884472039099016</v>
       </c>
       <c r="D94">
-        <v>-0.04394970646203493</v>
+        <v>0.4000372981951541</v>
       </c>
       <c r="E94">
-        <v>0.08846570156580863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3527330982045532</v>
+      </c>
+      <c r="F94">
+        <v>-0.03082479713336637</v>
+      </c>
+      <c r="G94">
+        <v>0.4173879098248407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08171939485706697</v>
+        <v>0.08140176390244856</v>
       </c>
       <c r="C95">
-        <v>-0.08140199541738602</v>
+        <v>0.08502752671669814</v>
       </c>
       <c r="D95">
-        <v>0.01966484202485426</v>
+        <v>-0.1407727036179381</v>
       </c>
       <c r="E95">
-        <v>-0.08539712580798028</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1564278904913624</v>
+      </c>
+      <c r="F95">
+        <v>0.01819977837329058</v>
+      </c>
+      <c r="G95">
+        <v>0.03409127192892145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2107097299326207</v>
+        <v>0.1962485327402528</v>
       </c>
       <c r="C98">
-        <v>-0.03460906085891827</v>
+        <v>0.04118512346374079</v>
       </c>
       <c r="D98">
-        <v>-0.02241377677078526</v>
+        <v>-0.1310124389236822</v>
       </c>
       <c r="E98">
-        <v>-0.04024576460637927</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.181908908027108</v>
+      </c>
+      <c r="F98">
+        <v>-0.09213640817967883</v>
+      </c>
+      <c r="G98">
+        <v>0.02417790725577179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01104730290526674</v>
+        <v>0.007808327859520665</v>
       </c>
       <c r="C101">
-        <v>-0.02075236135324827</v>
+        <v>0.02293216059339183</v>
       </c>
       <c r="D101">
-        <v>0.009051865789556668</v>
+        <v>-0.01591878069368224</v>
       </c>
       <c r="E101">
-        <v>0.01204728773841406</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007593802746439763</v>
+      </c>
+      <c r="F101">
+        <v>0.04681438859557335</v>
+      </c>
+      <c r="G101">
+        <v>-0.09325755909654536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1262885055135373</v>
+        <v>0.1232943599041634</v>
       </c>
       <c r="C102">
-        <v>-0.07104080433709797</v>
+        <v>0.09646840671797292</v>
       </c>
       <c r="D102">
-        <v>-0.00505939482675689</v>
+        <v>0.05150468552164572</v>
       </c>
       <c r="E102">
-        <v>0.03844931515743605</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.01539775201985877</v>
+      </c>
+      <c r="F102">
+        <v>-0.003418658555404357</v>
+      </c>
+      <c r="G102">
+        <v>-0.02778906273883878</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.008733384220648085</v>
+        <v>-0.00274052210324259</v>
       </c>
       <c r="C104">
-        <v>-0.01369394410350266</v>
+        <v>0.003918513044052699</v>
       </c>
       <c r="D104">
-        <v>0.9579971024304744</v>
+        <v>-0.05863796638192231</v>
       </c>
       <c r="E104">
-        <v>-0.1419461741964392</v>
+        <v>0.09096405020621247</v>
+      </c>
+      <c r="F104">
+        <v>0.8756869085055428</v>
+      </c>
+      <c r="G104">
+        <v>0.3964640394302855</v>
       </c>
     </row>
   </sheetData>
